--- a/Evolução.xlsx
+++ b/Evolução.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\DIO\BOOTCAMP CARREFOUR WEB DEVELOPER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Workspace\DIO\BOOTCAMP CARREFOUR WEB DEVELOPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D0EEA-B075-41FB-8AE1-D61C1F63870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C1EAE-061C-4DC4-8693-521F0FC52628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Dia</t>
   </si>
@@ -70,7 +70,31 @@
     <t>Módulo</t>
   </si>
   <si>
-    <t>MODULO I</t>
+    <t>Primeiros passos para Desenvolvimento Web</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Introdução a criação de sites com HTML5 e CSS3</t>
+  </si>
+  <si>
+    <t>Construindo páginas para internet usando Bootstrap</t>
+  </si>
+  <si>
+    <t>Recriando a Interface do Netflix</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -197,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,17 +256,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C38" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,21 +586,21 @@
         <v>2</v>
       </c>
       <c r="G1" s="11">
-        <f>SUM(D2:D50)</f>
-        <v>17</v>
+        <f>SUM(D2:D41)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44669</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>11</v>
+      <c r="B2" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
     </row>
@@ -575,11 +608,11 @@
       <c r="A3" s="3">
         <v>44670</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
     </row>
@@ -587,11 +620,11 @@
       <c r="A4" s="3">
         <v>44670</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
     </row>
@@ -599,11 +632,11 @@
       <c r="A5" s="3">
         <v>44671</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>4</v>
       </c>
     </row>
@@ -611,11 +644,11 @@
       <c r="A6" s="3">
         <v>44672</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>5</v>
       </c>
     </row>
@@ -623,333 +656,299 @@
       <c r="A7" s="3">
         <v>44673</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44674</v>
-      </c>
-      <c r="B8" s="14"/>
+        <v>44673</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44675</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
+        <v>44676</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44676</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
+        <v>44677</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44677</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
+        <v>44678</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44678</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
+        <v>44679</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44679</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>44680</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44680</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>44681</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44681</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>44682</v>
+      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44682</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>44683</v>
+      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="8"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44683</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>44684</v>
+      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="8"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44684</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>44685</v>
+      </c>
+      <c r="B18" s="14"/>
       <c r="C18" s="8"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44685</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>44686</v>
+      </c>
+      <c r="B19" s="14"/>
       <c r="C19" s="8"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44686</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>44687</v>
+      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="8"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44687</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>44688</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44688</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>44689</v>
+      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="8"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44689</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>44690</v>
+      </c>
+      <c r="B23" s="14"/>
       <c r="C23" s="8"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44690</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>44691</v>
+      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="8"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44691</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>44692</v>
+      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44692</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>44693</v>
+      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="8"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44693</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>44694</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44694</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>44695</v>
+      </c>
+      <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44695</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>44696</v>
+      </c>
+      <c r="B29" s="14"/>
       <c r="C29" s="8"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44696</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>44697</v>
+      </c>
+      <c r="B30" s="14"/>
       <c r="C30" s="8"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44697</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>44698</v>
+      </c>
+      <c r="B31" s="14"/>
       <c r="C31" s="8"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44698</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>44699</v>
+      </c>
+      <c r="B32" s="14"/>
       <c r="C32" s="8"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44699</v>
-      </c>
-      <c r="B33" s="3"/>
+        <v>44700</v>
+      </c>
+      <c r="B33" s="14"/>
       <c r="C33" s="8"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>44700</v>
-      </c>
-      <c r="B34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="8"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="8"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="8"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="8"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="8"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="8"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="8"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="8"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="B27:B41"/>
     <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Evolução.xlsx
+++ b/Evolução.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Workspace\DIO\BOOTCAMP CARREFOUR WEB DEVELOPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C1EAE-061C-4DC4-8693-521F0FC52628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB505F5-43CF-4069-8F3C-9971861839F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C37:C38"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="G1" s="11">
         <f>SUM(D2:D41)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,7 +698,9 @@
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -708,7 +710,9 @@
       <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">

--- a/Evolução.xlsx
+++ b/Evolução.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Workspace\DIO\BOOTCAMP CARREFOUR WEB DEVELOPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB505F5-43CF-4069-8F3C-9971861839F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889246BC-47F0-4D76-A866-3A0A99ED11F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Dia</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Tema</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,9 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -559,48 +559,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="10">
         <f>SUM(D2:D41)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44669</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
     </row>
@@ -608,11 +609,11 @@
       <c r="A3" s="3">
         <v>44670</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
     </row>
@@ -620,11 +621,11 @@
       <c r="A4" s="3">
         <v>44670</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
     </row>
@@ -632,11 +633,11 @@
       <c r="A5" s="3">
         <v>44671</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
     </row>
@@ -644,11 +645,11 @@
       <c r="A6" s="3">
         <v>44672</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>5</v>
       </c>
     </row>
@@ -656,11 +657,11 @@
       <c r="A7" s="3">
         <v>44673</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>2</v>
       </c>
     </row>
@@ -668,11 +669,11 @@
       <c r="A8" s="3">
         <v>44673</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
     </row>
@@ -680,13 +681,13 @@
       <c r="A9" s="3">
         <v>44676</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>6</v>
       </c>
     </row>
@@ -694,11 +695,11 @@
       <c r="A10" s="3">
         <v>44677</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>6</v>
       </c>
     </row>
@@ -706,11 +707,11 @@
       <c r="A11" s="3">
         <v>44678</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>4</v>
       </c>
     </row>
@@ -718,232 +719,234 @@
       <c r="A12" s="3">
         <v>44679</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44680</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44681</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44682</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44683</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44684</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44685</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44686</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44687</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44688</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44689</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44690</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44691</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44692</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44693</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44694</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44695</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44696</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44697</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44698</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44699</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44700</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="4"/>
     </row>
   </sheetData>

--- a/Evolução.xlsx
+++ b/Evolução.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Workspace\DIO\BOOTCAMP CARREFOUR WEB DEVELOPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889246BC-47F0-4D76-A866-3A0A99ED11F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC45CF7B-1B59-481E-ACEA-5BCFED4AA882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Dia</t>
   </si>
@@ -98,22 +98,113 @@
   </si>
   <si>
     <t>Tema</t>
+  </si>
+  <si>
+    <t>Coleções</t>
+  </si>
+  <si>
+    <t>Debugging e Error Handling</t>
+  </si>
+  <si>
+    <t>JavaScript Assíncrono</t>
+  </si>
+  <si>
+    <t>Orientação a objetos</t>
+  </si>
+  <si>
+    <t>Map, Filter e Reduce</t>
+  </si>
+  <si>
+    <t>Manipulando a D.O.M com JavaScript</t>
+  </si>
+  <si>
+    <t>Resolvendo Desafios de Código em Javascript</t>
+  </si>
+  <si>
+    <t>Desafios Iniciais JS</t>
+  </si>
+  <si>
+    <t>Introdução ao ReactJS</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de aplicações para internet com ReactJS</t>
+  </si>
+  <si>
+    <t>Introducao a Redux com ReactJS</t>
+  </si>
+  <si>
+    <t>Desafios Intermediários JS</t>
+  </si>
+  <si>
+    <t>Trabalhando com States &amp; Effects no ReactJS</t>
+  </si>
+  <si>
+    <t>Desenvolvendo uma Progressive Web Application com React para mapear os dados do COVID 19 pelo mundo</t>
+  </si>
+  <si>
+    <t>Introdução ao Ecossistema e Documentação Java</t>
+  </si>
+  <si>
+    <t>Dominando IDE Java</t>
+  </si>
+  <si>
+    <t>Variáveis, Tipos de Dados e Operadores Matemáticos em Java</t>
+  </si>
+  <si>
+    <t>Entendendo Métodos Java</t>
+  </si>
+  <si>
+    <t>Lógica Condicional e Controle de Fluxos em Java</t>
+  </si>
+  <si>
+    <t>Estruturas de Repetição e Arrays em Java</t>
+  </si>
+  <si>
+    <t>Desafios Iniciais Java - Carrefour Web Developer</t>
+  </si>
+  <si>
+    <t>Programação Orientada a Objetos</t>
+  </si>
+  <si>
+    <t>Debugging Java</t>
+  </si>
+  <si>
+    <t>Tratamento de Exceções em Java</t>
+  </si>
+  <si>
+    <t>Introdução ao framework Spring Boot</t>
+  </si>
+  <si>
+    <t>Simplificando Projetos Java com o Spring Boot</t>
+  </si>
+  <si>
+    <t>Imersão no Spring Framework com Spring Boot</t>
+  </si>
+  <si>
+    <t>Desafios Intermediários Java - Carrefour Web Developer</t>
+  </si>
+  <si>
+    <t>Conhecendo Spring Data JPA na prática com Java</t>
+  </si>
+  <si>
+    <t>Básico</t>
+  </si>
+  <si>
+    <t>Avançadp</t>
+  </si>
+  <si>
+    <t>Intermediário</t>
+  </si>
+  <si>
+    <t>Nível</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,8 +218,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,58 +350,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,400 +697,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="10">
-        <f>SUM(D2:D41)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>44669</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>44670</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>44670</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>44671</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>44672</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>44673</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>44673</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>44676</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>44677</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>44678</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>44679</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>44680</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>44680</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>44680</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>44690</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>44690</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>44690</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>44691</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>44691</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>44693</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>44694</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44680</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44681</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44682</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44683</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>44684</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44685</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44686</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44687</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>44688</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44689</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>44690</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44691</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44692</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>44693</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>44694</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="F22" s="12"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>44697</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>44697</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>44698</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>44700</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="22">
+        <v>3</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>44700</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>44695</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44696</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>44697</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>44698</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>44699</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>44700</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="4"/>
+      <c r="C27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>44701</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="16">
+        <v>4</v>
+      </c>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>44704</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>44705</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>44706</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>44707</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="16">
+        <v>3</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>44708</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>44711</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="16">
+        <v>4</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>44712</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>44715</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="16">
+        <v>3</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>44718</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>44719</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>44720</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <f>SUM(E2:E41)</f>
+        <v>65</v>
+      </c>
+      <c r="F42" s="2">
+        <f>SUM(F2:F41)</f>
+        <v>32</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I51" s="17"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I52" s="18"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I53" s="18"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I54" s="18"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+    </row>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="I51:I54"/>
     <mergeCell ref="B27:B41"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B12"/>
